--- a/Hardware/BOM-Proto-v3/BOM_LeitorRF_v3.xlsx
+++ b/Hardware/BOM-Proto-v3/BOM_LeitorRF_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20190" windowHeight="8505" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20190" windowHeight="8505" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="leitorcartao" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="LeitorRF_v3_FSK" sheetId="8" r:id="rId6"/>
     <sheet name="ListaTodosPN" sheetId="10" r:id="rId7"/>
     <sheet name="Consolidação" sheetId="13" r:id="rId8"/>
-    <sheet name="FinalDigikey" sheetId="14" r:id="rId9"/>
+    <sheet name="Pedido" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">leitorcartao!$A$1:$V$167</definedName>
@@ -23,14 +23,14 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId10"/>
-    <pivotCache cacheId="11" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="454">
   <si>
     <t>Part</t>
   </si>
@@ -1374,6 +1374,24 @@
   </si>
   <si>
     <t>DgkPN Proto</t>
+  </si>
+  <si>
+    <t>Retirar do pedido final</t>
+  </si>
+  <si>
+    <t>CL10C180FB8NNNC</t>
+  </si>
+  <si>
+    <t>1276-2206-1-ND</t>
+  </si>
+  <si>
+    <t>CL10C560FB8NNNC</t>
+  </si>
+  <si>
+    <t>1276-2312-1-ND</t>
+  </si>
+  <si>
+    <t>Obs.:</t>
   </si>
 </sst>
 </file>
@@ -4475,7 +4493,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:D60" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -4857,7 +4875,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:D61" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5246,7 +5264,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:D63" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5934,8 +5952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N168" sqref="N168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20324,7 +20342,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G61" si="0">$C$1*F5</f>
+        <f t="shared" ref="G5:G60" si="0">$C$1*F5</f>
         <v>120</v>
       </c>
       <c r="H5" s="6">
@@ -22614,8 +22632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B308"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -25075,10 +25093,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="K3" sqref="A3:K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -25089,11 +25107,12 @@
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.33203125" style="6"/>
-    <col min="9" max="9" width="21.1640625" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
         <v>413</v>
       </c>
@@ -25107,7 +25126,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>437</v>
       </c>
@@ -25132,14 +25151,17 @@
       <c r="H3" t="s">
         <v>445</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="9" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -25166,8 +25188,11 @@
         <f>IF(E4=1,MAX(G4+30,100),G4+5)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -25187,7 +25212,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G63" si="0">$D$1*F5</f>
+        <f t="shared" ref="G5:G61" si="0">$D$1*F5</f>
         <v>222</v>
       </c>
       <c r="H5">
@@ -25195,7 +25220,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -25223,7 +25248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -25251,7 +25276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -25278,11 +25303,11 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -25309,11 +25334,11 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -25340,11 +25365,14 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="I10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -25372,7 +25400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -25399,11 +25427,11 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -25431,7 +25459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -25459,7 +25487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -25487,7 +25515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -25515,7 +25543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -25543,7 +25571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -25571,7 +25599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -25599,7 +25627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -25627,7 +25655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -25654,11 +25682,14 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I21" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -25686,7 +25717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -25714,7 +25745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -25741,14 +25772,14 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -25776,7 +25807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>385</v>
       </c>
@@ -25804,7 +25835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>390</v>
       </c>
@@ -25831,11 +25862,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>400</v>
       </c>
@@ -25862,8 +25893,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>395</v>
       </c>
@@ -25890,8 +25924,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -25919,7 +25956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>209</v>
       </c>
@@ -25947,7 +25984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>202</v>
       </c>
@@ -25974,7 +26011,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="9" t="s">
         <v>428</v>
       </c>
     </row>
@@ -26061,10 +26098,10 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="9" t="s">
         <v>433</v>
       </c>
     </row>
@@ -26432,7 +26469,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>328</v>
       </c>
@@ -26460,7 +26497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>303</v>
       </c>
@@ -26488,7 +26525,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>353</v>
       </c>
@@ -26516,7 +26553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>265</v>
       </c>
@@ -26544,7 +26581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>252</v>
       </c>
@@ -26572,7 +26609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>312</v>
       </c>
@@ -26600,7 +26637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>314</v>
       </c>
@@ -26628,7 +26665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>319</v>
       </c>
@@ -26656,7 +26693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>307</v>
       </c>
@@ -26684,7 +26721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>282</v>
       </c>
@@ -26712,7 +26749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>174</v>
       </c>
@@ -26740,7 +26777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>247</v>
       </c>
@@ -26767,8 +26804,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K60" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>240</v>
       </c>
@@ -26796,7 +26836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>439</v>
       </c>
@@ -26806,7 +26846,7 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>410</v>
       </c>
@@ -26819,22 +26859,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26854,32 +26894,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C3">
-        <v>252</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -26887,76 +26927,79 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9">
         <v>35</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
+        <v>99</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -26964,10 +27007,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -26975,21 +27018,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -26997,10 +27040,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -27008,54 +27051,57 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>451</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>105</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -27063,46 +27109,46 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>434</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>434</v>
+        <v>168</v>
       </c>
       <c r="C22">
         <v>29</v>
       </c>
-      <c r="D22" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>385</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>382</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -27110,82 +27156,82 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>390</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>387</v>
+        <v>195</v>
       </c>
       <c r="C25">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>431</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>400</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s">
-        <v>401</v>
+        <v>210</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
-        <v>392</v>
+        <v>203</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>432</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C31">
         <v>17</v>
@@ -27193,200 +27239,197 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="C32">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s">
-        <v>432</v>
+        <v>278</v>
       </c>
       <c r="C33">
-        <v>65</v>
-      </c>
-      <c r="D33" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>342</v>
       </c>
       <c r="C34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C35">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>277</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="C36">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>258</v>
       </c>
       <c r="C37">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="C38">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>365</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="C39">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="C40">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>262</v>
       </c>
       <c r="C41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C42">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="B43" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="C43">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" t="s">
+        <v>329</v>
+      </c>
+      <c r="C44">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44" t="s">
-        <v>262</v>
-      </c>
-      <c r="C44">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>269</v>
-      </c>
-      <c r="B46" t="s">
-        <v>270</v>
-      </c>
-      <c r="C46">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="C47">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B48" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="C48">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -27394,10 +27437,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C50">
         <v>100</v>
@@ -27405,10 +27448,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="C51">
         <v>100</v>
@@ -27416,10 +27459,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C52">
         <v>100</v>
@@ -27427,10 +27470,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="B53" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C53">
         <v>100</v>
@@ -27438,67 +27481,23 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c r="C54">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="B55" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="C55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>282</v>
-      </c>
-      <c r="B56" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>247</v>
-      </c>
-      <c r="B58" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>240</v>
-      </c>
-      <c r="B59" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59">
         <v>17</v>
       </c>
     </row>

--- a/Hardware/BOM-Proto-v3/BOM_LeitorRF_v3.xlsx
+++ b/Hardware/BOM-Proto-v3/BOM_LeitorRF_v3.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4364" uniqueCount="456">
   <si>
     <t>Part</t>
   </si>
@@ -1392,6 +1392,12 @@
   </si>
   <si>
     <t>Obs.:</t>
+  </si>
+  <si>
+    <t>C1210C102FBGACTU</t>
+  </si>
+  <si>
+    <t>399-5548-1-ND</t>
   </si>
 </sst>
 </file>
@@ -25095,8 +25101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="K3" sqref="A3:K61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -25486,6 +25492,12 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
+      <c r="I14" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -26868,7 +26880,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -26998,11 +27010,14 @@
       <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" t="s">
-        <v>84</v>
+      <c r="B11" s="9" t="s">
+        <v>454</v>
       </c>
       <c r="C11">
         <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Hardware/BOM-Proto-v3/BOM_LeitorRF_v3.xlsx
+++ b/Hardware/BOM-Proto-v3/BOM_LeitorRF_v3.xlsx
@@ -4,33 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20190" windowHeight="8505" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20190" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="leitorcartao" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Proto-v3" sheetId="2" r:id="rId2"/>
-    <sheet name="ASK+PSK+MIFARE" sheetId="4" r:id="rId3"/>
-    <sheet name="LeitorRF_v3_PSK" sheetId="5" r:id="rId4"/>
-    <sheet name="ASK+FSK+MIFARE" sheetId="7" r:id="rId5"/>
-    <sheet name="LeitorRF_v3_FSK" sheetId="8" r:id="rId6"/>
-    <sheet name="ListaTodosPN" sheetId="10" r:id="rId7"/>
-    <sheet name="Consolidação" sheetId="13" r:id="rId8"/>
-    <sheet name="Pedido" sheetId="14" r:id="rId9"/>
+    <sheet name="ListaTodosPN" sheetId="10" r:id="rId3"/>
+    <sheet name="Consolidação" sheetId="13" r:id="rId4"/>
+    <sheet name="Pedido" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">leitorcartao!$A$1:$V$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$1:$V$167</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Proto-v3'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4364" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="449">
   <si>
     <t>Part</t>
   </si>
@@ -1265,63 +1260,24 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Count of PSK_CUSTOMERPN</t>
-  </si>
-  <si>
-    <t>Count of PSK_PN</t>
-  </si>
-  <si>
     <t># placas</t>
   </si>
   <si>
-    <t>Copy</t>
-  </si>
-  <si>
     <t>Qty Total</t>
   </si>
   <si>
-    <t>Qty Corrig</t>
-  </si>
-  <si>
-    <t>R/C/L</t>
-  </si>
-  <si>
-    <t>Count of FSK_PN</t>
-  </si>
-  <si>
-    <t>Count of FSK_CUSTOMERPN</t>
-  </si>
-  <si>
     <t>R/C</t>
   </si>
   <si>
-    <t>Qty Copy</t>
-  </si>
-  <si>
     <t>CL21A106KAYNNNE</t>
   </si>
   <si>
-    <t>Trocar por</t>
-  </si>
-  <si>
-    <t>CBR06C180FAGAC</t>
-  </si>
-  <si>
-    <t>600S560FT</t>
-  </si>
-  <si>
     <t>GRM155R72A102KA01D</t>
   </si>
   <si>
-    <t>Não existe +-5% em estoque, este é 10%</t>
-  </si>
-  <si>
     <t>1276-6276-1-ND</t>
   </si>
   <si>
-    <t>Usar o DGKPN</t>
-  </si>
-  <si>
     <t>C1608CH2A121J080AA</t>
   </si>
   <si>
@@ -1340,9 +1296,6 @@
     <t>BAT54SLT1GOSCT-ND</t>
   </si>
   <si>
-    <t>DNP, retirar</t>
-  </si>
-  <si>
     <t>CUSTOMERPN</t>
   </si>
   <si>
@@ -1398,6 +1351,27 @@
   </si>
   <si>
     <t>399-5548-1-ND</t>
+  </si>
+  <si>
+    <t>RC0402JR-074K7L</t>
+  </si>
+  <si>
+    <t>C0402C472J3RACTU</t>
+  </si>
+  <si>
+    <t>399-7800-1-ND</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>Errado na BOM</t>
+  </si>
+  <si>
+    <t>C/1n/50V/D04</t>
+  </si>
+  <si>
+    <t>CL05B102JB5NFNC</t>
   </si>
 </sst>
 </file>
@@ -1947,261 +1921,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MX" refreshedDate="41604.866081018517" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="153">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D154" sheet="Proto-v3"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="FSK_CUSTOMERPN" numFmtId="0">
-      <sharedItems count="57">
-        <s v="BUZ-REP"/>
-        <s v="C/4.7u/16V/C06"/>
-        <s v="C/1m/16V/PTH"/>
-        <s v="C/10n/50V/C04"/>
-        <s v="C/10u/25V/A08"/>
-        <s v="C/0.1u/16V/A04"/>
-        <s v="C/18p/100V/E06"/>
-        <s v="C/220n/25V/C04"/>
-        <s v="C/4.7n/25V/D04"/>
-        <s v="C/1n/500V/E18"/>
-        <s v="C/68p/25V/D04"/>
-        <s v="C/220n/200V/C12"/>
-        <s v="C/1n/200V/C12"/>
-        <s v="C/680p/25V/C04"/>
-        <s v="C/220p/25V/D04"/>
-        <s v="C/1n/100V/D04"/>
-        <s v="C/47p/25V/E04"/>
-        <s v="C/100p/50V/D04"/>
-        <s v="C/120p/100V/E06"/>
-        <s v="C/56p/100V/E06"/>
-        <s v="DNP"/>
-        <s v="D/BYG20J"/>
-        <s v="TVS/14V/SMA"/>
-        <s v="D/BAT54S/SOT23"/>
-        <s v="IC/TL084/TSSOP14"/>
-        <s v="L/22n/0.2A/04"/>
-        <s v="L/1u/0.5A/06"/>
-        <s v="LED/RG/3MM"/>
-        <s v="Q/DMN3404/SOT23"/>
-        <s v="Q/MMBT4401/SOT23"/>
-        <s v="Q/MMBT4403/SOT23"/>
-        <s v="XTAL/8MHZ/PTH"/>
-        <s v="XTAL/2712MHZ/5x3"/>
-        <s v="R/470/5%/04"/>
-        <s v="R/12K/5%/04"/>
-        <s v="R/1K/5%/04"/>
-        <s v="R/4.7k/5%/04"/>
-        <s v="R/2.2k/5%/04"/>
-        <s v="R/0/0%/04"/>
-        <s v="R/10/5%/06"/>
-        <s v="R/91k/5%/04"/>
-        <s v="R/13k/5%/04"/>
-        <s v="R/1M/5%/12"/>
-        <s v="R/100K/5%/06"/>
-        <s v="R/27k/1%/04"/>
-        <s v="R/9.1k/5%/04"/>
-        <s v="R/5.1k/5%/04"/>
-        <s v="R/7.5k/5%/04"/>
-        <s v="R/180k/5%/04"/>
-        <s v="R/100/5%/06"/>
-        <s v="R/3.3/5%/06"/>
-        <s v="R/130/5%/04"/>
-        <s v="R/120/5%/04"/>
-        <s v="IC/3V3REG"/>
-        <s v="IC/5VREG"/>
-        <s v="IC/SAMD20/TQ32"/>
-        <s v="IC/MFRC52202"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="FSK_PN" numFmtId="0">
-      <sharedItems count="56">
-        <s v="PS1240P02BT"/>
-        <s v="CL10A475KO8NNNC"/>
-        <s v="ESK108M016AH2AA"/>
-        <s v="CL05B103KB5NNNC"/>
-        <s v="GRM188R61E106MA73D"/>
-        <s v="CL05B104KO5NNNC"/>
-        <s v="06031U180FAT2A"/>
-        <s v="C1005X5R1E224K050BC"/>
-        <s v="CL05B472KA5NNNC"/>
-        <s v="C1812C102FBGACTU"/>
-        <s v="CL05C680JB5NNNC"/>
-        <s v="C3216X7T2E224K160AA"/>
-        <s v="CL31C102JHHNFNE"/>
-        <s v="CL05B681KB5NNNC"/>
-        <s v="CL05C221JB5NNNC"/>
-        <s v="C0402C102J1GACTU"/>
-        <s v="CL05C470FB5NNNC"/>
-        <s v="CL05C101JB5NNNC"/>
-        <s v="GRM1885C2A121FA01J"/>
-        <s v="06031U560FAT2A"/>
-        <s v="BYG20J-E3/TR"/>
-        <s v="SMAJ14A"/>
-        <s v="BAT54S,215"/>
-        <s v="TL084CPT"/>
-        <s v="CIH05T22NJNC"/>
-        <s v="BRC1608T1R0M"/>
-        <s v="LTL1BEKVJNN"/>
-        <s v="DMN3404L-7"/>
-        <s v="MMBT4401LT3G"/>
-        <s v="MMBT4403LT3G"/>
-        <s v="9B-8.000MAAJ-B"/>
-        <s v="7B-27.120MAAJ-T"/>
-        <s v="RC1005J471CS"/>
-        <s v="RC1005J123CS"/>
-        <s v="RC0402JR-071KL"/>
-        <s v="RC1608J472CS"/>
-        <s v="RC1005J222CS"/>
-        <s v="RC1005J000CS"/>
-        <s v="RC1608J100CS"/>
-        <s v="RC1005J913CS"/>
-        <s v="RC1005J133CS"/>
-        <s v="RC3216J105CS"/>
-        <s v="RC0603JR-07100KL"/>
-        <s v="RC1005F273CS"/>
-        <s v="RC1005J912CS"/>
-        <s v="RC1005F512CS"/>
-        <s v="RC1005F752CS"/>
-        <s v="RC1005J184CS"/>
-        <s v="RC1005J101CS"/>
-        <s v="RC1608J3R3CS"/>
-        <s v="RC1005J131CS"/>
-        <s v="RC1005J121CS"/>
-        <s v="TLV71333PDBVR"/>
-        <s v="NCP1117LPST50T3G"/>
-        <s v="SAMD20E14A-AUT"/>
-        <s v="MFRC52202HN1,151"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="PSK_CUSTOMERPN" numFmtId="0">
-      <sharedItems count="56">
-        <s v="BUZ-REP"/>
-        <s v="C/4.7u/16V/C06"/>
-        <s v="C/1m/16V/PTH"/>
-        <s v="C/10n/50V/C04"/>
-        <s v="C/10u/25V/A08"/>
-        <s v="C/0.1u/16V/A04"/>
-        <s v="C/18p/100V/E06"/>
-        <s v="C/220n/25V/C04"/>
-        <s v="C/4.7n/25V/D04"/>
-        <s v="C/1n/500V/E18"/>
-        <s v="C/68p/25V/D04"/>
-        <s v="C/220n/200V/C12"/>
-        <s v="C/1n/200V/C12"/>
-        <s v="C/680p/25V/C04"/>
-        <s v="C/100p/50V/D04"/>
-        <s v="C/47p/25V/E04"/>
-        <s v="C/1n/100V/D04"/>
-        <s v="C/120p/100V/E06"/>
-        <s v="C/56p/100V/E06"/>
-        <s v="DNP"/>
-        <s v="D/BYG20J"/>
-        <s v="TVS/14V/SMA"/>
-        <s v="D/BAT54S/SOT23"/>
-        <s v="IC/TL084/TSSOP14"/>
-        <s v="L/22n/0.2A/04"/>
-        <s v="L/1u/0.5A/06"/>
-        <s v="LED/RG/3MM"/>
-        <s v="Q/DMN3404/SOT23"/>
-        <s v="Q/MMBT4401/SOT23"/>
-        <s v="Q/MMBT4403/SOT23"/>
-        <s v="XTAL/8MHZ/PTH"/>
-        <s v="XTAL/2712MHZ/5x3"/>
-        <s v="R/470/5%/04"/>
-        <s v="R/12K/5%/04"/>
-        <s v="R/1K/5%/04"/>
-        <s v="R/4.7k/5%/04"/>
-        <s v="R/2.2k/5%/04"/>
-        <s v="R/0/0%/04"/>
-        <s v="R/10/5%/06"/>
-        <s v="R/91k/5%/04"/>
-        <s v="R/13k/5%/04"/>
-        <s v="R/1M/5%/12"/>
-        <s v="R/100K/5%/06"/>
-        <s v="R/27k/1%/04"/>
-        <s v="R/9.1k/5%/04"/>
-        <s v="R/5.6k/5%/04"/>
-        <s v="R/5.1k/5%/04"/>
-        <s v="R/270k/5%/04"/>
-        <s v="R/100/5%/06"/>
-        <s v="R/3.3/5%/06"/>
-        <s v="R/130/5%/04"/>
-        <s v="R/120/5%/04"/>
-        <s v="IC/3V3REG"/>
-        <s v="IC/5VREG"/>
-        <s v="IC/SAMD20/TQ32"/>
-        <s v="IC/MFRC52202"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="PSK_PN" numFmtId="0">
-      <sharedItems count="55">
-        <s v="PS1240P02BT"/>
-        <s v="CL10A475KO8NNNC"/>
-        <s v="ESK108M016AH2AA"/>
-        <s v="CL05B103KB5NNNC"/>
-        <s v="GRM188R61E106MA73D"/>
-        <s v="CL05B104KO5NNNC"/>
-        <s v="06031U180FAT2A"/>
-        <s v="C1005X5R1E224K050BC"/>
-        <s v="CL05B472KA5NNNC"/>
-        <s v="C1812C102FBGACTU"/>
-        <s v="CL05C680JB5NNNC"/>
-        <s v="C3216X7T2E224K160AA"/>
-        <s v="CL31C102JHHNFNE"/>
-        <s v="CL05B681KB5NNNC"/>
-        <s v="CL05C101JB5NNNC"/>
-        <s v="CL05C470FB5NNNC"/>
-        <s v="C0402C102J1GACTU"/>
-        <s v="GRM1885C2A121FA01J"/>
-        <s v="06031U560FAT2A"/>
-        <s v="BYG20J-E3/TR"/>
-        <s v="SMAJ14A"/>
-        <s v="BAT54S,215"/>
-        <s v="TL084CPT"/>
-        <s v="CIH05T22NJNC"/>
-        <s v="BRC1608T1R0M"/>
-        <s v="LTL1BEKVJNN"/>
-        <s v="DMN3404L-7"/>
-        <s v="MMBT4401LT3G"/>
-        <s v="MMBT4403LT3G"/>
-        <s v="9B-8.000MAAJ-B"/>
-        <s v="7B-27.120MAAJ-T"/>
-        <s v="RC1005J471CS"/>
-        <s v="RC1005J123CS"/>
-        <s v="RC0402JR-071KL"/>
-        <s v="RC1608J472CS"/>
-        <s v="RC1005J222CS"/>
-        <s v="RC1005J000CS"/>
-        <s v="RC1608J100CS"/>
-        <s v="RC1005J913CS"/>
-        <s v="RC1005J133CS"/>
-        <s v="RC3216J105CS"/>
-        <s v="RC0603JR-07100KL"/>
-        <s v="RC1005F273CS"/>
-        <s v="RC1005J912CS"/>
-        <s v="RC1005F562CS"/>
-        <s v="RC1005F512CS"/>
-        <s v="RC1005F274CS"/>
-        <s v="RC1005J101CS"/>
-        <s v="RC1608J3R3CS"/>
-        <s v="RC1005J131CS"/>
-        <s v="RC1005J121CS"/>
-        <s v="TLV71333PDBVR"/>
-        <s v="NCP1117LPST50T3G"/>
-        <s v="SAMD20E14A-AUT"/>
-        <s v="MFRC52202HN1,151"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MX" refreshedDate="41605.629326273149" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="307">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B308" sheet="ListaTodosPN"/>
@@ -2343,929 +2062,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="153">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="14"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="14"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="13"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="14"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <x v="14"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <x v="14"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="16"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <x v="17"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <x v="17"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <x v="18"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <x v="18"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="5"/>
-    <x v="19"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="20"/>
-    <x v="20"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="21"/>
-    <x v="21"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="20"/>
-    <x v="20"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="22"/>
-    <x v="22"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="22"/>
-    <x v="22"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="23"/>
-    <x v="23"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="23"/>
-    <x v="23"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="24"/>
-    <x v="24"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="24"/>
-    <x v="24"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="25"/>
-    <x v="25"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="25"/>
-    <x v="25"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="26"/>
-    <x v="26"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="27"/>
-    <x v="27"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="28"/>
-    <x v="28"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="29"/>
-    <x v="29"/>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="28"/>
-    <x v="28"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="28"/>
-    <x v="28"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="28"/>
-    <x v="28"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="28"/>
-    <x v="28"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="30"/>
-    <x v="30"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="31"/>
-    <x v="31"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="32"/>
-    <x v="32"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="32"/>
-    <x v="32"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="33"/>
-    <x v="33"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="34"/>
-    <x v="34"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="35"/>
-    <x v="35"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="36"/>
-    <x v="36"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="35"/>
-    <x v="35"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="37"/>
-    <x v="37"/>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="38"/>
-    <x v="38"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="38"/>
-    <x v="38"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="39"/>
-    <x v="39"/>
-    <x v="38"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="40"/>
-    <x v="40"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="39"/>
-    <x v="39"/>
-    <x v="38"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="40"/>
-    <x v="40"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="41"/>
-    <x v="41"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="42"/>
-    <x v="42"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="34"/>
-    <x v="34"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="43"/>
-    <x v="43"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="44"/>
-    <x v="44"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="44"/>
-    <x v="44"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="45"/>
-    <x v="45"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="44"/>
-    <x v="44"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="46"/>
-    <x v="46"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="37"/>
-    <x v="37"/>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="40"/>
-    <x v="40"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="44"/>
-    <x v="44"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="47"/>
-    <x v="47"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="43"/>
-    <x v="43"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="32"/>
-    <x v="32"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="43"/>
-    <x v="43"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="47"/>
-    <x v="47"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="43"/>
-    <x v="43"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="37"/>
-    <x v="37"/>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="43"/>
-    <x v="43"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="45"/>
-    <x v="45"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="46"/>
-    <x v="46"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="43"/>
-    <x v="43"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="48"/>
-    <x v="48"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="46"/>
-    <x v="46"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="45"/>
-    <x v="45"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="47"/>
-    <x v="47"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="35"/>
-    <x v="35"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="35"/>
-    <x v="35"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="34"/>
-    <x v="34"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="36"/>
-    <x v="36"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="49"/>
-    <x v="49"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="49"/>
-    <x v="49"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="36"/>
-    <x v="36"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="36"/>
-    <x v="36"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="34"/>
-    <x v="34"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="34"/>
-    <x v="34"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="48"/>
-    <x v="48"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="50"/>
-    <x v="50"/>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <x v="51"/>
-    <x v="51"/>
-    <x v="50"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="36"/>
-    <x v="36"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="34"/>
-    <x v="34"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="48"/>
-    <x v="48"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="42"/>
-    <x v="42"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="42"/>
-    <x v="42"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="42"/>
-    <x v="42"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="42"/>
-    <x v="42"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="36"/>
-    <x v="36"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="34"/>
-    <x v="34"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="48"/>
-    <x v="48"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="51"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <x v="53"/>
-    <x v="53"/>
-    <x v="52"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <x v="54"/>
-    <x v="54"/>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <x v="55"/>
-    <x v="55"/>
-    <x v="54"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="307">
   <r>
     <x v="0"/>
@@ -4499,777 +3295,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:D60" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="4">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="56">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="22"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="55"/>
-        <item x="54"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="48"/>
-        <item x="42"/>
-        <item x="51"/>
-        <item x="33"/>
-        <item x="50"/>
-        <item x="40"/>
-        <item x="34"/>
-        <item x="41"/>
-        <item x="36"/>
-        <item x="47"/>
-        <item x="43"/>
-        <item x="49"/>
-        <item x="35"/>
-        <item x="32"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="39"/>
-        <item x="21"/>
-        <item x="31"/>
-        <item x="30"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="55">
-        <item x="6"/>
-        <item x="18"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="19"/>
-        <item x="16"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="26"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="25"/>
-        <item x="54"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="52"/>
-        <item x="0"/>
-        <item x="33"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="36"/>
-        <item x="47"/>
-        <item x="50"/>
-        <item x="32"/>
-        <item x="49"/>
-        <item x="39"/>
-        <item x="35"/>
-        <item x="31"/>
-        <item x="43"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="48"/>
-        <item x="34"/>
-        <item x="40"/>
-        <item x="53"/>
-        <item x="20"/>
-        <item x="22"/>
-        <item x="51"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="57">
-    <i>
-      <x/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="50"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="51"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="52"/>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="53"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="54"/>
-      <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of PSK_CUSTOMERPN" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of PSK_PN" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:D61" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="57">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="15"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="56"/>
-        <item x="55"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="49"/>
-        <item x="43"/>
-        <item x="52"/>
-        <item x="34"/>
-        <item x="51"/>
-        <item x="41"/>
-        <item x="48"/>
-        <item x="35"/>
-        <item x="42"/>
-        <item x="37"/>
-        <item x="44"/>
-        <item x="50"/>
-        <item x="36"/>
-        <item x="33"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="45"/>
-        <item x="40"/>
-        <item x="22"/>
-        <item x="32"/>
-        <item x="31"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="56">
-        <item x="6"/>
-        <item x="19"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="22"/>
-        <item x="25"/>
-        <item x="20"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="24"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="27"/>
-        <item x="2"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="55"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="53"/>
-        <item x="0"/>
-        <item x="34"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="37"/>
-        <item x="48"/>
-        <item x="51"/>
-        <item x="33"/>
-        <item x="50"/>
-        <item x="40"/>
-        <item x="47"/>
-        <item x="36"/>
-        <item x="32"/>
-        <item x="44"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="49"/>
-        <item x="35"/>
-        <item x="41"/>
-        <item x="54"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="52"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="58">
-    <i>
-      <x/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="50"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="51"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="52"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="53"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="54"/>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="55"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="56"/>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of FSK_PN" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of FSK_CUSTOMERPN" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:D63" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="2">
@@ -5956,10 +3981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N168" sqref="N168"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5986,7 +4012,7 @@
     <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6054,7 +4080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -6118,7 +4144,7 @@
       </c>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -6184,7 +4210,7 @@
       </c>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -6248,7 +4274,7 @@
       </c>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -6314,7 +4340,7 @@
       </c>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -6380,7 +4406,7 @@
       </c>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -6446,7 +4472,7 @@
       </c>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -6512,7 +4538,7 @@
       </c>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -6578,7 +4604,7 @@
       </c>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -6644,7 +4670,7 @@
       </c>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -6710,7 +4736,7 @@
       </c>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
@@ -6776,7 +4802,7 @@
       </c>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -6842,7 +4868,7 @@
       </c>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -6908,7 +4934,7 @@
       </c>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -6974,7 +5000,7 @@
       </c>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
@@ -7040,7 +5066,7 @@
       </c>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -7106,7 +5132,7 @@
       </c>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -7172,7 +5198,7 @@
       </c>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -7238,7 +5264,7 @@
       </c>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -7304,7 +5330,7 @@
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -7370,7 +5396,7 @@
       </c>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -7436,7 +5462,7 @@
       </c>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
@@ -7494,7 +5520,7 @@
       </c>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>79</v>
       </c>
@@ -7560,7 +5586,7 @@
       </c>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
@@ -7626,7 +5652,7 @@
       </c>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -7692,7 +5718,7 @@
       </c>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -7758,7 +5784,7 @@
       </c>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>91</v>
       </c>
@@ -7824,7 +5850,7 @@
       </c>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -7890,7 +5916,7 @@
       </c>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>97</v>
       </c>
@@ -7956,7 +5982,7 @@
       </c>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -8010,7 +6036,7 @@
       </c>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>102</v>
       </c>
@@ -8076,7 +6102,7 @@
       </c>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
@@ -8130,7 +6156,7 @@
       </c>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>110</v>
       </c>
@@ -8161,10 +6187,10 @@
         <v>23</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>112</v>
+        <v>447</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -8184,7 +6210,7 @@
       </c>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -8250,7 +6276,7 @@
       </c>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>117</v>
       </c>
@@ -8316,7 +6342,7 @@
       </c>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>118</v>
       </c>
@@ -8370,7 +6396,7 @@
       </c>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
@@ -8424,7 +6450,7 @@
       </c>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>123</v>
       </c>
@@ -8478,7 +6504,7 @@
       </c>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>124</v>
       </c>
@@ -8532,7 +6558,7 @@
       </c>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>125</v>
       </c>
@@ -8563,10 +6589,10 @@
         <v>23</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>112</v>
+        <v>447</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -8586,7 +6612,7 @@
       </c>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>126</v>
       </c>
@@ -8640,7 +6666,7 @@
       </c>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -8694,7 +6720,7 @@
       </c>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -8760,7 +6786,7 @@
       </c>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
@@ -8814,7 +6840,7 @@
       </c>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>130</v>
       </c>
@@ -8845,10 +6871,10 @@
         <v>23</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>112</v>
+        <v>447</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8868,7 +6894,7 @@
       </c>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -8922,7 +6948,7 @@
       </c>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>132</v>
       </c>
@@ -8970,7 +6996,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>133</v>
       </c>
@@ -9018,7 +7044,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>134</v>
       </c>
@@ -9066,7 +7092,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>135</v>
       </c>
@@ -9114,7 +7140,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>137</v>
       </c>
@@ -9162,7 +7188,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>138</v>
       </c>
@@ -9210,7 +7236,7 @@
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>139</v>
       </c>
@@ -9258,7 +7284,7 @@
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>140</v>
       </c>
@@ -9306,7 +7332,7 @@
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>141</v>
       </c>
@@ -9354,7 +7380,7 @@
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>145</v>
       </c>
@@ -9402,7 +7428,7 @@
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>146</v>
       </c>
@@ -9450,7 +7476,7 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>147</v>
       </c>
@@ -9498,7 +7524,7 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>148</v>
       </c>
@@ -9546,7 +7572,7 @@
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>149</v>
       </c>
@@ -9594,7 +7620,7 @@
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>153</v>
       </c>
@@ -9642,7 +7668,7 @@
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>154</v>
       </c>
@@ -9690,7 +7716,7 @@
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>155</v>
       </c>
@@ -9738,7 +7764,7 @@
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>156</v>
       </c>
@@ -9804,7 +7830,7 @@
       </c>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>157</v>
       </c>
@@ -9870,7 +7896,7 @@
       </c>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>158</v>
       </c>
@@ -9908,7 +7934,7 @@
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>162</v>
       </c>
@@ -9946,7 +7972,7 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>164</v>
       </c>
@@ -10010,7 +8036,7 @@
       </c>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>169</v>
       </c>
@@ -10048,7 +8074,7 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>170</v>
       </c>
@@ -10112,7 +8138,7 @@
       </c>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>176</v>
       </c>
@@ -10176,7 +8202,7 @@
       </c>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>177</v>
       </c>
@@ -10240,7 +8266,7 @@
       </c>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>183</v>
       </c>
@@ -10304,7 +8330,7 @@
       </c>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>184</v>
       </c>
@@ -10344,7 +8370,7 @@
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>188</v>
       </c>
@@ -10384,7 +8410,7 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>189</v>
       </c>
@@ -10422,7 +8448,7 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>190</v>
       </c>
@@ -10486,7 +8512,7 @@
       </c>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>196</v>
       </c>
@@ -10538,7 +8564,7 @@
       </c>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>197</v>
       </c>
@@ -10586,7 +8612,7 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>204</v>
       </c>
@@ -10634,7 +8660,7 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>205</v>
       </c>
@@ -10682,7 +8708,7 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>211</v>
       </c>
@@ -10730,7 +8756,7 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>212</v>
       </c>
@@ -10768,7 +8794,7 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>214</v>
       </c>
@@ -10830,7 +8856,7 @@
       </c>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>217</v>
       </c>
@@ -10868,7 +8894,7 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -10930,7 +8956,7 @@
       </c>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>223</v>
       </c>
@@ -10992,7 +9018,7 @@
       </c>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>227</v>
       </c>
@@ -11054,7 +9080,7 @@
       </c>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>231</v>
       </c>
@@ -11116,7 +9142,7 @@
       </c>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>232</v>
       </c>
@@ -11178,7 +9204,7 @@
       </c>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>233</v>
       </c>
@@ -11240,7 +9266,7 @@
       </c>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>234</v>
       </c>
@@ -11302,7 +9328,7 @@
       </c>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>235</v>
       </c>
@@ -11366,7 +9392,7 @@
       </c>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>242</v>
       </c>
@@ -11412,7 +9438,7 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>249</v>
       </c>
@@ -11478,7 +9504,7 @@
       </c>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>254</v>
       </c>
@@ -11544,7 +9570,7 @@
       </c>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>255</v>
       </c>
@@ -11610,7 +9636,7 @@
       </c>
       <c r="V98" s="2"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>259</v>
       </c>
@@ -11699,7 +9725,7 @@
         <v>265</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" si="2"/>
@@ -11716,7 +9742,7 @@
         <v>265</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>23</v>
@@ -11725,7 +9751,7 @@
         <v>265</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>33</v>
@@ -11738,11 +9764,11 @@
         <v>265</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="V100" s="2"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>267</v>
       </c>
@@ -11831,7 +9857,7 @@
         <v>265</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="I102" s="2">
         <f t="shared" si="2"/>
@@ -11848,7 +9874,7 @@
         <v>265</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>23</v>
@@ -11857,7 +9883,7 @@
         <v>265</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>33</v>
@@ -11870,11 +9896,11 @@
         <v>265</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="V102" s="2"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>272</v>
       </c>
@@ -11940,7 +9966,7 @@
       </c>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>275</v>
       </c>
@@ -12006,7 +10032,7 @@
       </c>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>279</v>
       </c>
@@ -12072,7 +10098,7 @@
       </c>
       <c r="V105" s="2"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>280</v>
       </c>
@@ -12138,7 +10164,7 @@
       </c>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>284</v>
       </c>
@@ -12204,7 +10230,7 @@
       </c>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>288</v>
       </c>
@@ -12270,7 +10296,7 @@
       </c>
       <c r="V108" s="2"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>289</v>
       </c>
@@ -12336,7 +10362,7 @@
       </c>
       <c r="V109" s="2"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>290</v>
       </c>
@@ -12402,7 +10428,7 @@
       </c>
       <c r="V110" s="2"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>296</v>
       </c>
@@ -12468,7 +10494,7 @@
       </c>
       <c r="V111" s="2"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>300</v>
       </c>
@@ -12534,7 +10560,7 @@
       </c>
       <c r="V112" s="2"/>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>301</v>
       </c>
@@ -12600,7 +10626,7 @@
       </c>
       <c r="V113" s="2"/>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>305</v>
       </c>
@@ -12666,7 +10692,7 @@
       </c>
       <c r="V114" s="2"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>309</v>
       </c>
@@ -12732,7 +10758,7 @@
       </c>
       <c r="V115" s="2"/>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>310</v>
       </c>
@@ -12786,7 +10812,7 @@
       </c>
       <c r="V116" s="2"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>316</v>
       </c>
@@ -12852,7 +10878,7 @@
       </c>
       <c r="V117" s="2"/>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>317</v>
       </c>
@@ -12906,7 +10932,7 @@
       </c>
       <c r="V118" s="2"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>321</v>
       </c>
@@ -12972,7 +10998,7 @@
       </c>
       <c r="V119" s="2"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>322</v>
       </c>
@@ -13038,7 +11064,7 @@
       </c>
       <c r="V120" s="2"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>323</v>
       </c>
@@ -13092,7 +11118,7 @@
       </c>
       <c r="V121" s="2"/>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>324</v>
       </c>
@@ -13146,7 +11172,7 @@
       </c>
       <c r="V122" s="2"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>330</v>
       </c>
@@ -13200,7 +11226,7 @@
       </c>
       <c r="V123" s="2"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>331</v>
       </c>
@@ -13254,7 +11280,7 @@
       </c>
       <c r="V124" s="2"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>332</v>
       </c>
@@ -13308,7 +11334,7 @@
       </c>
       <c r="V125" s="2"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>333</v>
       </c>
@@ -13362,7 +11388,7 @@
       </c>
       <c r="V126" s="2"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>334</v>
       </c>
@@ -13416,7 +11442,7 @@
       </c>
       <c r="V127" s="2"/>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>335</v>
       </c>
@@ -13482,7 +11508,7 @@
       </c>
       <c r="V128" s="2"/>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>336</v>
       </c>
@@ -13536,7 +11562,7 @@
       </c>
       <c r="V129" s="2"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>337</v>
       </c>
@@ -13590,7 +11616,7 @@
       </c>
       <c r="V130" s="2"/>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>338</v>
       </c>
@@ -13644,7 +11670,7 @@
       </c>
       <c r="V131" s="2"/>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>339</v>
       </c>
@@ -13698,7 +11724,7 @@
       </c>
       <c r="V132" s="2"/>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>340</v>
       </c>
@@ -13752,7 +11778,7 @@
       </c>
       <c r="V133" s="2"/>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>343</v>
       </c>
@@ -13806,7 +11832,7 @@
       </c>
       <c r="V134" s="2"/>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>344</v>
       </c>
@@ -13860,7 +11886,7 @@
       </c>
       <c r="V135" s="2"/>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>345</v>
       </c>
@@ -14010,7 +12036,7 @@
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>349</v>
       </c>
@@ -14058,7 +12084,7 @@
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>350</v>
       </c>
@@ -14106,7 +12132,7 @@
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>351</v>
       </c>
@@ -14154,7 +12180,7 @@
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>355</v>
       </c>
@@ -14202,7 +12228,7 @@
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>356</v>
       </c>
@@ -14268,7 +12294,7 @@
       </c>
       <c r="V143" s="2"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>357</v>
       </c>
@@ -14334,7 +12360,7 @@
       </c>
       <c r="V144" s="2"/>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>358</v>
       </c>
@@ -14400,7 +12426,7 @@
       </c>
       <c r="V145" s="2"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>359</v>
       </c>
@@ -14466,7 +12492,7 @@
       </c>
       <c r="V146" s="2"/>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>360</v>
       </c>
@@ -14532,7 +12558,7 @@
       </c>
       <c r="V147" s="2"/>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>361</v>
       </c>
@@ -14598,7 +12624,7 @@
       </c>
       <c r="V148" s="2"/>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>364</v>
       </c>
@@ -14664,7 +12690,7 @@
       </c>
       <c r="V149" s="2"/>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>367</v>
       </c>
@@ -14730,7 +12756,7 @@
       </c>
       <c r="V150" s="2"/>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>368</v>
       </c>
@@ -14796,7 +12822,7 @@
       </c>
       <c r="V151" s="2"/>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>369</v>
       </c>
@@ -14862,7 +12888,7 @@
       </c>
       <c r="V152" s="2"/>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>370</v>
       </c>
@@ -14928,7 +12954,7 @@
       </c>
       <c r="V153" s="2"/>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>371</v>
       </c>
@@ -14994,7 +13020,7 @@
       </c>
       <c r="V154" s="2"/>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>372</v>
       </c>
@@ -15060,7 +13086,7 @@
       </c>
       <c r="V155" s="2"/>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>373</v>
       </c>
@@ -15126,7 +13152,7 @@
       </c>
       <c r="V156" s="2"/>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>374</v>
       </c>
@@ -15192,7 +13218,7 @@
       </c>
       <c r="V157" s="2"/>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>375</v>
       </c>
@@ -15258,7 +13284,7 @@
       </c>
       <c r="V158" s="2"/>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>376</v>
       </c>
@@ -15324,7 +13350,7 @@
       </c>
       <c r="V159" s="2"/>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>377</v>
       </c>
@@ -15362,7 +13388,7 @@
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>381</v>
       </c>
@@ -15424,7 +13450,7 @@
       </c>
       <c r="V161" s="2"/>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>386</v>
       </c>
@@ -15486,7 +13512,7 @@
       </c>
       <c r="V162" s="2"/>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>391</v>
       </c>
@@ -15550,7 +13576,7 @@
       </c>
       <c r="V163" s="2"/>
     </row>
-    <row r="164" spans="1:22" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:22" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>396</v>
       </c>
@@ -15596,7 +13622,7 @@
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>402</v>
       </c>
@@ -15634,7 +13660,7 @@
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>403</v>
       </c>
@@ -15674,7 +13700,7 @@
       <c r="U166" s="2"/>
       <c r="V166" s="2"/>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>407</v>
       </c>
@@ -15715,8 +13741,15 @@
       <c r="V167" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V167"/>
+  <autoFilter ref="A1:V167">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="4.7k"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17901,4745 +15934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C1" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="H3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="8">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>6</v>
-      </c>
-      <c r="G4" s="6">
-        <f>F4*$C$1</f>
-        <v>36</v>
-      </c>
-      <c r="H4">
-        <f>IF(E4=1,MAX(G4+100,200),G4+5)</f>
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>423</v>
-      </c>
-      <c r="K4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G59" si="0">F5*$C$1</f>
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H59" si="1">IF(E5=1,MAX(G5+100,200),G5+5)</f>
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>423</v>
-      </c>
-      <c r="K5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>423</v>
-      </c>
-      <c r="K8" t="s">
-        <v>434</v>
-      </c>
-      <c r="L8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="8">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J11" t="s">
-        <v>423</v>
-      </c>
-      <c r="K11" t="s">
-        <v>426</v>
-      </c>
-      <c r="M11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J15" t="s">
-        <v>429</v>
-      </c>
-      <c r="K15" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8">
-        <v>5</v>
-      </c>
-      <c r="D16" s="8">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="8">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8">
-        <v>17</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>17</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="8">
-        <v>2</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>2</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="8">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8">
-        <v>5</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>5</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="8">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8">
-        <v>4</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>4</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="8">
-        <v>5</v>
-      </c>
-      <c r="D23" s="8">
-        <v>5</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>5</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="8">
-        <v>2</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J28" t="s">
-        <v>423</v>
-      </c>
-      <c r="K28" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="8">
-        <v>3</v>
-      </c>
-      <c r="D29" s="8">
-        <v>3</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>3</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="J29" t="s">
-        <v>423</v>
-      </c>
-      <c r="K29" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>401</v>
-      </c>
-      <c r="B31" t="s">
-        <v>400</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>226</v>
-      </c>
-      <c r="B32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="8">
-        <v>5</v>
-      </c>
-      <c r="D32" s="8">
-        <v>5</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>5</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="J32" t="s">
-        <v>423</v>
-      </c>
-      <c r="K32" t="s">
-        <v>432</v>
-      </c>
-      <c r="L32" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B33" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>387</v>
-      </c>
-      <c r="B34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J34" t="s">
-        <v>429</v>
-      </c>
-      <c r="K34" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" t="s">
-        <v>261</v>
-      </c>
-      <c r="C36" s="8">
-        <v>7</v>
-      </c>
-      <c r="D36" s="8">
-        <v>7</v>
-      </c>
-      <c r="E36" s="8">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
-        <v>7</v>
-      </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>299</v>
-      </c>
-      <c r="B37" t="s">
-        <v>298</v>
-      </c>
-      <c r="C37" s="8">
-        <v>5</v>
-      </c>
-      <c r="D37" s="8">
-        <v>5</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
-        <v>5</v>
-      </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>304</v>
-      </c>
-      <c r="B38" t="s">
-        <v>303</v>
-      </c>
-      <c r="C38" s="8">
-        <v>6</v>
-      </c>
-      <c r="D38" s="8">
-        <v>6</v>
-      </c>
-      <c r="E38" s="8">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
-        <v>6</v>
-      </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>329</v>
-      </c>
-      <c r="B39" t="s">
-        <v>328</v>
-      </c>
-      <c r="C39" s="8">
-        <v>3</v>
-      </c>
-      <c r="D39" s="8">
-        <v>3</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>3</v>
-      </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>313</v>
-      </c>
-      <c r="B40" t="s">
-        <v>312</v>
-      </c>
-      <c r="C40" s="8">
-        <v>3</v>
-      </c>
-      <c r="D40" s="8">
-        <v>3</v>
-      </c>
-      <c r="E40" s="8">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
-        <v>3</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>315</v>
-      </c>
-      <c r="B41" t="s">
-        <v>314</v>
-      </c>
-      <c r="C41" s="8">
-        <v>3</v>
-      </c>
-      <c r="D41" s="8">
-        <v>3</v>
-      </c>
-      <c r="E41" s="8">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>3</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" t="s">
-        <v>273</v>
-      </c>
-      <c r="C42" s="8">
-        <v>3</v>
-      </c>
-      <c r="D42" s="8">
-        <v>3</v>
-      </c>
-      <c r="E42" s="8">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
-        <v>3</v>
-      </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>342</v>
-      </c>
-      <c r="B43" t="s">
-        <v>341</v>
-      </c>
-      <c r="C43" s="8">
-        <v>4</v>
-      </c>
-      <c r="D43" s="8">
-        <v>4</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
-        <v>4</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>366</v>
-      </c>
-      <c r="B44" t="s">
-        <v>365</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1</v>
-      </c>
-      <c r="E44" s="8">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" t="s">
-        <v>257</v>
-      </c>
-      <c r="C45" s="8">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6">
-        <v>1</v>
-      </c>
-      <c r="G45" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>363</v>
-      </c>
-      <c r="B46" t="s">
-        <v>362</v>
-      </c>
-      <c r="C46" s="8">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1</v>
-      </c>
-      <c r="F46" s="6">
-        <v>1</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>287</v>
-      </c>
-      <c r="B47" t="s">
-        <v>286</v>
-      </c>
-      <c r="C47" s="8">
-        <v>3</v>
-      </c>
-      <c r="D47" s="8">
-        <v>3</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>3</v>
-      </c>
-      <c r="G47" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>270</v>
-      </c>
-      <c r="B48" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="8">
-        <v>6</v>
-      </c>
-      <c r="D48" s="8">
-        <v>6</v>
-      </c>
-      <c r="E48" s="8">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6">
-        <v>6</v>
-      </c>
-      <c r="G48" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>253</v>
-      </c>
-      <c r="B49" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="8">
-        <v>3</v>
-      </c>
-      <c r="D49" s="8">
-        <v>3</v>
-      </c>
-      <c r="E49" s="8">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
-        <v>3</v>
-      </c>
-      <c r="G49" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>308</v>
-      </c>
-      <c r="B50" t="s">
-        <v>307</v>
-      </c>
-      <c r="C50" s="8">
-        <v>4</v>
-      </c>
-      <c r="D50" s="8">
-        <v>4</v>
-      </c>
-      <c r="E50" s="8">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6">
-        <v>4</v>
-      </c>
-      <c r="G50" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>283</v>
-      </c>
-      <c r="B51" t="s">
-        <v>282</v>
-      </c>
-      <c r="C51" s="8">
-        <v>2</v>
-      </c>
-      <c r="D51" s="8">
-        <v>2</v>
-      </c>
-      <c r="E51" s="8">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6">
-        <v>2</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>278</v>
-      </c>
-      <c r="B52" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="8">
-        <v>2</v>
-      </c>
-      <c r="D52" s="8">
-        <v>2</v>
-      </c>
-      <c r="E52" s="8">
-        <v>1</v>
-      </c>
-      <c r="F52" s="6">
-        <v>2</v>
-      </c>
-      <c r="G52" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>354</v>
-      </c>
-      <c r="B53" t="s">
-        <v>353</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2</v>
-      </c>
-      <c r="D53" s="8">
-        <v>2</v>
-      </c>
-      <c r="E53" s="8">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6">
-        <v>2</v>
-      </c>
-      <c r="G53" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>266</v>
-      </c>
-      <c r="B54" t="s">
-        <v>265</v>
-      </c>
-      <c r="C54" s="8">
-        <v>4</v>
-      </c>
-      <c r="D54" s="8">
-        <v>4</v>
-      </c>
-      <c r="E54" s="8">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>4</v>
-      </c>
-      <c r="G54" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>295</v>
-      </c>
-      <c r="B55" t="s">
-        <v>294</v>
-      </c>
-      <c r="C55" s="8">
-        <v>1</v>
-      </c>
-      <c r="D55" s="8">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6">
-        <v>1</v>
-      </c>
-      <c r="G55" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>392</v>
-      </c>
-      <c r="B56" t="s">
-        <v>395</v>
-      </c>
-      <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="D56" s="8">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="8">
-        <v>1</v>
-      </c>
-      <c r="D57" s="8">
-        <v>1</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6">
-        <v>1</v>
-      </c>
-      <c r="G57" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>195</v>
-      </c>
-      <c r="B58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="8">
-        <v>2</v>
-      </c>
-      <c r="D58" s="8">
-        <v>2</v>
-      </c>
-      <c r="E58" s="8">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6">
-        <v>2</v>
-      </c>
-      <c r="G58" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>382</v>
-      </c>
-      <c r="B59" t="s">
-        <v>385</v>
-      </c>
-      <c r="C59" s="8">
-        <v>1</v>
-      </c>
-      <c r="D59" s="8">
-        <v>1</v>
-      </c>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>410</v>
-      </c>
-      <c r="C60" s="8">
-        <v>153</v>
-      </c>
-      <c r="D60" s="8">
-        <v>153</v>
-      </c>
-      <c r="E60" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>426</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="D12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>430</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>422</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>432</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C31">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C56">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="6"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C1" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <f>$C$1*F4</f>
-        <v>6</v>
-      </c>
-      <c r="H4" s="6">
-        <f>IF(E4=1,MAX(G4+100,200),G4+5)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="8">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G60" si="0">$C$1*F5</f>
-        <v>120</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" ref="H5:H60" si="1">IF(E5=1,MAX(G5+100,200),G5+5)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>423</v>
-      </c>
-      <c r="K8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J9" t="s">
-        <v>423</v>
-      </c>
-      <c r="K9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="8">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>6</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>423</v>
-      </c>
-      <c r="K10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>4</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J12" t="s">
-        <v>423</v>
-      </c>
-      <c r="K12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>2</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="8">
-        <v>3</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="8">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>4</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>423</v>
-      </c>
-      <c r="K21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="8">
-        <v>3</v>
-      </c>
-      <c r="D23" s="8">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>3</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J24" t="s">
-        <v>423</v>
-      </c>
-      <c r="K24" t="s">
-        <v>434</v>
-      </c>
-      <c r="L24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J26" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>385</v>
-      </c>
-      <c r="B27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>390</v>
-      </c>
-      <c r="B28" t="s">
-        <v>387</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J28" t="s">
-        <v>429</v>
-      </c>
-      <c r="K28" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>400</v>
-      </c>
-      <c r="B29" t="s">
-        <v>401</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>395</v>
-      </c>
-      <c r="B30" t="s">
-        <v>392</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="8">
-        <v>2</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>2</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2</v>
-      </c>
-      <c r="D32" s="8">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>2</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2</v>
-      </c>
-      <c r="D33" s="8">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>2</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J33" t="s">
-        <v>429</v>
-      </c>
-      <c r="K33" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>216</v>
-      </c>
-      <c r="B34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>221</v>
-      </c>
-      <c r="B35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>225</v>
-      </c>
-      <c r="B36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C36" s="8">
-        <v>5</v>
-      </c>
-      <c r="D36" s="8">
-        <v>5</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>5</v>
-      </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="J36" t="s">
-        <v>423</v>
-      </c>
-      <c r="K36" t="s">
-        <v>432</v>
-      </c>
-      <c r="L36" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" t="s">
-        <v>230</v>
-      </c>
-      <c r="C37" s="8">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B38" t="s">
-        <v>274</v>
-      </c>
-      <c r="C38" s="8">
-        <v>3</v>
-      </c>
-      <c r="D38" s="8">
-        <v>3</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
-        <v>3</v>
-      </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H38" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>277</v>
-      </c>
-      <c r="B39" t="s">
-        <v>278</v>
-      </c>
-      <c r="C39" s="8">
-        <v>2</v>
-      </c>
-      <c r="D39" s="8">
-        <v>2</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>2</v>
-      </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>341</v>
-      </c>
-      <c r="B40" t="s">
-        <v>342</v>
-      </c>
-      <c r="C40" s="8">
-        <v>4</v>
-      </c>
-      <c r="D40" s="8">
-        <v>4</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
-        <v>4</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>298</v>
-      </c>
-      <c r="B41" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="8">
-        <v>5</v>
-      </c>
-      <c r="D41" s="8">
-        <v>5</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>5</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B42" t="s">
-        <v>366</v>
-      </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>257</v>
-      </c>
-      <c r="B43" t="s">
-        <v>258</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H43" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>362</v>
-      </c>
-      <c r="B44" t="s">
-        <v>363</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>286</v>
-      </c>
-      <c r="B45" t="s">
-        <v>287</v>
-      </c>
-      <c r="C45" s="8">
-        <v>3</v>
-      </c>
-      <c r="D45" s="8">
-        <v>3</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6">
-        <v>3</v>
-      </c>
-      <c r="G45" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H45" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>326</v>
-      </c>
-      <c r="B46" t="s">
-        <v>327</v>
-      </c>
-      <c r="C46" s="8">
-        <v>3</v>
-      </c>
-      <c r="D46" s="8">
-        <v>3</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1</v>
-      </c>
-      <c r="F46" s="6">
-        <v>3</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47" t="s">
-        <v>262</v>
-      </c>
-      <c r="C47" s="8">
-        <v>7</v>
-      </c>
-      <c r="D47" s="8">
-        <v>7</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>7</v>
-      </c>
-      <c r="G47" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="H47" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>294</v>
-      </c>
-      <c r="B48" t="s">
-        <v>295</v>
-      </c>
-      <c r="C48" s="8">
-        <v>1</v>
-      </c>
-      <c r="D48" s="8">
-        <v>1</v>
-      </c>
-      <c r="E48" s="6">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H48" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B49" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" s="8">
-        <v>6</v>
-      </c>
-      <c r="D49" s="8">
-        <v>6</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
-        <v>6</v>
-      </c>
-      <c r="G49" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H49" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>303</v>
-      </c>
-      <c r="B50" t="s">
-        <v>304</v>
-      </c>
-      <c r="C50" s="8">
-        <v>6</v>
-      </c>
-      <c r="D50" s="8">
-        <v>6</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6">
-        <v>6</v>
-      </c>
-      <c r="G50" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H50" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>353</v>
-      </c>
-      <c r="B51" t="s">
-        <v>354</v>
-      </c>
-      <c r="C51" s="8">
-        <v>2</v>
-      </c>
-      <c r="D51" s="8">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6">
-        <v>2</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H51" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>265</v>
-      </c>
-      <c r="B52" t="s">
-        <v>266</v>
-      </c>
-      <c r="C52" s="8">
-        <v>4</v>
-      </c>
-      <c r="D52" s="8">
-        <v>4</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1</v>
-      </c>
-      <c r="F52" s="6">
-        <v>4</v>
-      </c>
-      <c r="G52" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H52" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>252</v>
-      </c>
-      <c r="B53" t="s">
-        <v>253</v>
-      </c>
-      <c r="C53" s="8">
-        <v>3</v>
-      </c>
-      <c r="D53" s="8">
-        <v>3</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6">
-        <v>3</v>
-      </c>
-      <c r="G53" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H53" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>312</v>
-      </c>
-      <c r="B54" t="s">
-        <v>313</v>
-      </c>
-      <c r="C54" s="8">
-        <v>3</v>
-      </c>
-      <c r="D54" s="8">
-        <v>3</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>3</v>
-      </c>
-      <c r="G54" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H54" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>319</v>
-      </c>
-      <c r="B55" t="s">
-        <v>320</v>
-      </c>
-      <c r="C55" s="8">
-        <v>3</v>
-      </c>
-      <c r="D55" s="8">
-        <v>3</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6">
-        <v>3</v>
-      </c>
-      <c r="G55" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H55" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>307</v>
-      </c>
-      <c r="B56" t="s">
-        <v>308</v>
-      </c>
-      <c r="C56" s="8">
-        <v>4</v>
-      </c>
-      <c r="D56" s="8">
-        <v>4</v>
-      </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
-        <v>4</v>
-      </c>
-      <c r="G56" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H56" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>282</v>
-      </c>
-      <c r="B57" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2</v>
-      </c>
-      <c r="D57" s="8">
-        <v>2</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1</v>
-      </c>
-      <c r="F57" s="6">
-        <v>2</v>
-      </c>
-      <c r="G57" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H57" s="6">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>174</v>
-      </c>
-      <c r="B58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="8">
-        <v>1</v>
-      </c>
-      <c r="D58" s="8">
-        <v>1</v>
-      </c>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6">
-        <v>1</v>
-      </c>
-      <c r="G58" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H58" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>247</v>
-      </c>
-      <c r="B59" t="s">
-        <v>248</v>
-      </c>
-      <c r="C59" s="8">
-        <v>1</v>
-      </c>
-      <c r="D59" s="8">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H59" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>240</v>
-      </c>
-      <c r="B60" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" s="8">
-        <v>1</v>
-      </c>
-      <c r="D60" s="8">
-        <v>1</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="6">
-        <v>1</v>
-      </c>
-      <c r="G60" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H60" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>410</v>
-      </c>
-      <c r="C61" s="8">
-        <v>153</v>
-      </c>
-      <c r="D61" s="8">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" t="s">
-        <v>425</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" t="s">
-        <v>434</v>
-      </c>
-      <c r="C21">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" t="s">
-        <v>432</v>
-      </c>
-      <c r="C33">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C53">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -22650,10 +15948,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -25097,12 +18395,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -25120,51 +18418,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D1" s="6">
         <v>6</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H3" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -25191,11 +18489,11 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <f>IF(E4=1,MAX(G4+30,100),G4+5)</f>
+        <f>IF(E4=1,G4+20,G4+5)</f>
         <v>17</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -25222,8 +18520,8 @@
         <v>222</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H61" si="1">IF(E5=1,MAX(G5+30,100),G5+5)</f>
-        <v>252</v>
+        <f t="shared" ref="H5:H61" si="1">IF(E5=1,G5+20,G5+5)</f>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -25251,7 +18549,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -25279,7 +18577,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -25310,7 +18608,10 @@
         <v>41</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>422</v>
+        <v>414</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -25341,7 +18642,7 @@
         <v>29</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -25372,10 +18673,10 @@
         <v>77</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -25434,7 +18735,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -25493,10 +18794,10 @@
         <v>17</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -25552,7 +18853,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -25580,7 +18881,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -25608,7 +18909,16 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -25664,7 +18974,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -25695,10 +19005,10 @@
         <v>29</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -25726,7 +19036,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -25754,7 +19064,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -25785,10 +19095,10 @@
         <v>29</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -25875,7 +19185,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -25906,7 +19216,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -25937,7 +19247,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -26024,7 +19334,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -26111,10 +19421,10 @@
         <v>65</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -26170,7 +19480,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -26198,7 +19508,7 @@
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -26226,7 +19536,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -26254,7 +19564,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -26282,7 +19592,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -26310,7 +19620,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -26338,7 +19648,7 @@
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -26366,7 +19676,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -26394,7 +19704,7 @@
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -26422,7 +19732,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -26450,7 +19760,7 @@
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -26478,7 +19788,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -26506,7 +19816,7 @@
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -26534,7 +19844,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -26562,7 +19872,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -26590,7 +19900,7 @@
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -26618,7 +19928,7 @@
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -26646,7 +19956,7 @@
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -26674,7 +19984,7 @@
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -26702,7 +20012,7 @@
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -26730,7 +20040,7 @@
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -26758,7 +20068,7 @@
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -26817,7 +20127,7 @@
         <v>17</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -26850,10 +20160,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -26875,33 +20185,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C1" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -26912,7 +20224,7 @@
         <v>53</v>
       </c>
       <c r="C2">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -26923,7 +20235,7 @@
         <v>115</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -26934,7 +20246,7 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -26942,7 +20254,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C5">
         <v>41</v>
@@ -26953,7 +20265,7 @@
         <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -26964,13 +20276,13 @@
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C7">
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -26989,7 +20301,7 @@
         <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -26999,7 +20311,7 @@
       <c r="A10" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C10">
@@ -27010,14 +20322,14 @@
       <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>454</v>
+      <c r="B11" t="s">
+        <v>440</v>
       </c>
       <c r="C11">
         <v>17</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>455</v>
+      <c r="D11" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -27039,7 +20351,7 @@
         <v>71</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -27050,7 +20362,7 @@
         <v>109</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -27061,7 +20373,7 @@
         <v>75</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -27083,7 +20395,7 @@
         <v>122</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -27091,13 +20403,13 @@
         <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C18">
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -27108,7 +20420,7 @@
         <v>105</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -27119,7 +20431,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -27127,13 +20439,13 @@
         <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C21">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -27163,7 +20475,7 @@
         <v>390</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -27202,7 +20514,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -27232,13 +20544,13 @@
         <v>225</v>
       </c>
       <c r="B30" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="C30">
         <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -27260,7 +20572,7 @@
         <v>274</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -27271,7 +20583,7 @@
         <v>278</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -27282,7 +20594,7 @@
         <v>342</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -27293,7 +20605,7 @@
         <v>299</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -27304,7 +20616,7 @@
         <v>366</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -27315,7 +20627,7 @@
         <v>258</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -27326,7 +20638,7 @@
         <v>363</v>
       </c>
       <c r="C38">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -27337,7 +20649,7 @@
         <v>287</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -27348,7 +20660,7 @@
         <v>327</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -27359,7 +20671,7 @@
         <v>262</v>
       </c>
       <c r="C41">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -27370,7 +20682,7 @@
         <v>295</v>
       </c>
       <c r="C42">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -27381,7 +20693,7 @@
         <v>270</v>
       </c>
       <c r="C43">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -27392,7 +20704,7 @@
         <v>329</v>
       </c>
       <c r="C44">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -27403,7 +20715,7 @@
         <v>304</v>
       </c>
       <c r="C45">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -27414,7 +20726,7 @@
         <v>354</v>
       </c>
       <c r="C46">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -27425,7 +20737,7 @@
         <v>266</v>
       </c>
       <c r="C47">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -27436,7 +20748,7 @@
         <v>253</v>
       </c>
       <c r="C48">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -27447,7 +20759,7 @@
         <v>313</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -27458,7 +20770,7 @@
         <v>315</v>
       </c>
       <c r="C50">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -27469,7 +20781,7 @@
         <v>320</v>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -27480,7 +20792,7 @@
         <v>308</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -27491,7 +20803,7 @@
         <v>283</v>
       </c>
       <c r="C53">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -27514,6 +20826,19 @@
       </c>
       <c r="C55">
         <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>425</v>
+      </c>
+      <c r="B56" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
